--- a/src/natoogram.xlsx
+++ b/src/natoogram.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>URL of the post</t>
   </si>
@@ -90,116 +90,34 @@
     <t>Duration of video (only for video posts)</t>
   </si>
   <si>
-    <t>https://www.instagram.com/p/Bm0qI7KDyVS/?taken-by=natoogram</t>
-  </si>
-  <si>
-    <t>Tous les protagonistes de cette photo sont en kiff.
-Merci @avarefuge pour cette journée passée dans votre ferme.
-C’était beau❤️
-Ava est une association qui récupère les vieux animaux pour leur faire passer une retraite douce à l’abri de l’euthanasie. Il y a plus de 500 animaux sur place; des chiens, des chats, des chevaux, poneys, ânes...le travail effectué est dingue!
-Les animaux récupérés proviennent de particuliers qui n’arrivent plus gérer leur animal et qui décident de les mettre à la retraite à la campagne pour finir leurs vieux jours mais aussi de cirques, de laboratoires, ...😞
-Il y a aussi une pension pour faire garder vos animaux quand vous partez en vacances. Lola y est restée 2 semaines, c’est comme ça que je les ai connu. Passez voir leur compte pour obtenir plus de renseignements et les soutenir!
-🐶🐱🐰🐴🐄🦌🐇🦔</t>
-  </si>
-  <si>
-    <t>❤😞🐶🐱🐰🐴🐄🦌🐇🦔</t>
-  </si>
-  <si>
-    <t>kittyetlola,blogofbruce,avarefuge,mypetagency</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/1018671112/ava/</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>avarefuge</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/BmywbeIDSSh/?taken-by=natoogram</t>
-  </si>
-  <si>
-    <t>Quand j’apporte un truc que j’ai préparé moi même à une soirée.</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>video</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/Bmv7eyljX9v/?taken-by=natoogram</t>
-  </si>
-  <si>
-    <t>La vue que nous avions quand nous gisions mollement dans nos transats au bord de la piscine de l’hôtel. Je vais faire imprimer cette photo en grand et l’épingler au dessus de mon lit afin de prolonger les vacances via un ingénieux système de trompe-l’œil.</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/304137125/encore-las-vegas-hotelcasino/</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/Bmtvo89DZzX/?taken-by=natoogram</t>
-  </si>
-  <si>
-    <t>Quand @miko.goncalves capture des instants de soirée💃🏼✨
-#LeTalent</t>
-  </si>
-  <si>
-    <t>letalent</t>
-  </si>
-  <si>
-    <t>💃✨</t>
-  </si>
-  <si>
-    <t>xslasvegas,miko.goncalves,melococo,djsnake</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/147972/xs-las-vegas/</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>gallery</t>
-  </si>
-  <si>
-    <t>miko.goncalves</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/BmtVpWVD1gH/?taken-by=natoogram</t>
-  </si>
-  <si>
-    <t>Aucun dollar n’aura été gagné à Vegas. Rien. Nada. Le néant. Je suis allée me faire cuire un œuf. A la coque. Et j’ai fait cuire ceux qui me restaient pour un gâteau au chocolat et au seum.
-💸💸💸</t>
-  </si>
-  <si>
-    <t>💸💸💸</t>
-  </si>
-  <si>
-    <t>manoush_officiel,skinnydiplondon</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/explore/locations/119574771950283/las-vegas-nevada/</t>
+    <t>Media ID</t>
+  </si>
+  <si>
+    <t>Downloadable Link</t>
+  </si>
+  <si>
+    <t>Folder Location on PC of Downloaded Media</t>
+  </si>
+  <si>
+    <t>Media Location PC</t>
+  </si>
+  <si>
+    <t>Name of The File</t>
+  </si>
+  <si>
+    <t>Media Resolution (in Pixel)</t>
+  </si>
+  <si>
+    <t>Size of the Media (in kB)</t>
+  </si>
+  <si>
+    <t>Location Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.00%"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -217,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,43 +150,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7A7979"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6E708E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7588E8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBC7760"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0BC5D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF273666"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF769636"/>
+        <fgColor rgb="FF22B5B5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF574DF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6AD1F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,24 +241,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA6F914"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF22B5B5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF574DF8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6AD1F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -447,39 +323,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -776,7 +619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:BV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -785,417 +628,87 @@
     <col min="1" max="24" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="40" customHeight="1">
+    <row r="1" spans="1:74" ht="40" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" ht="40" customHeight="1">
-      <c r="A2" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="25">
-        <v>809</v>
-      </c>
-      <c r="D2" s="25">
-        <v>138</v>
-      </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25">
-        <v>0</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="25">
-        <v>10</v>
-      </c>
-      <c r="I2" s="25">
-        <v>218259</v>
-      </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25">
-        <v>637</v>
-      </c>
-      <c r="L2" s="26">
-        <v>0.06960932839285691</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="25">
-        <v>4</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="27">
-        <v>43335</v>
-      </c>
-      <c r="S2" s="28">
-        <v>0.5541319444444444</v>
-      </c>
-      <c r="T2" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="25" t="s">
+      <c r="BU1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="BV1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-    </row>
-    <row r="3" spans="1:24" ht="40" customHeight="1">
-      <c r="A3" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="25">
-        <v>63</v>
-      </c>
-      <c r="D3" s="25">
-        <v>12</v>
-      </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25">
-        <v>0</v>
-      </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25">
-        <v>0</v>
-      </c>
-      <c r="I3" s="25">
-        <v>138364</v>
-      </c>
-      <c r="J3" s="25">
-        <v>397938</v>
-      </c>
-      <c r="K3" s="25">
-        <v>892</v>
-      </c>
-      <c r="L3" s="26">
-        <v>0.04428366271962796</v>
-      </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25">
-        <v>0</v>
-      </c>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="27">
-        <v>43334</v>
-      </c>
-      <c r="S3" s="28">
-        <v>0.8159027777777776</v>
-      </c>
-      <c r="T3" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25">
-        <v>15.94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="40" customHeight="1">
-      <c r="A4" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="25">
-        <v>255</v>
-      </c>
-      <c r="D4" s="25">
-        <v>45</v>
-      </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25">
-        <v>0</v>
-      </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25">
-        <v>0</v>
-      </c>
-      <c r="I4" s="25">
-        <v>104813</v>
-      </c>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25">
-        <v>153</v>
-      </c>
-      <c r="L4" s="26">
-        <v>0.03337937999819375</v>
-      </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25">
-        <v>0</v>
-      </c>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="27">
-        <v>43333</v>
-      </c>
-      <c r="S4" s="28">
-        <v>0.7175578703703702</v>
-      </c>
-      <c r="T4" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="U4" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="V4" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-    </row>
-    <row r="5" spans="1:24" ht="40" customHeight="1">
-      <c r="A5" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="25">
-        <v>48</v>
-      </c>
-      <c r="D5" s="25">
-        <v>7</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="25">
-        <v>1</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="25">
-        <v>2</v>
-      </c>
-      <c r="I5" s="25">
-        <v>120340</v>
-      </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25">
-        <v>155</v>
-      </c>
-      <c r="L5" s="26">
-        <v>0.03831763040301008</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="25">
-        <v>4</v>
-      </c>
-      <c r="O5" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="R5" s="27">
-        <v>43332</v>
-      </c>
-      <c r="S5" s="28">
-        <v>0.8689814814814816</v>
-      </c>
-      <c r="T5" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="U5" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="V5" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="W5" s="25">
-        <v>4</v>
-      </c>
-      <c r="X5" s="25"/>
-    </row>
-    <row r="6" spans="1:24" ht="40" customHeight="1">
-      <c r="A6" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="25">
-        <v>190</v>
-      </c>
-      <c r="D6" s="25">
-        <v>38</v>
-      </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25">
-        <v>0</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="25">
-        <v>3</v>
-      </c>
-      <c r="I6" s="25">
-        <v>167553</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25">
-        <v>305</v>
-      </c>
-      <c r="L6" s="26">
-        <v>0.05337915103687677</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" s="25">
-        <v>2</v>
-      </c>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="R6" s="27">
-        <v>43332</v>
-      </c>
-      <c r="S6" s="28">
-        <v>0.7112500000000002</v>
-      </c>
-      <c r="T6" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="U6" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="V6" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="Q2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="Q3" r:id="rId4"/>
-    <hyperlink ref="A4" r:id="rId5"/>
-    <hyperlink ref="Q4" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
-    <hyperlink ref="Q5" r:id="rId8"/>
-    <hyperlink ref="A6" r:id="rId9"/>
-    <hyperlink ref="Q6" r:id="rId10"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>